--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27002"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projeto e Inovação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF2D1CA-FB8A-4DDD-84C5-5A3C70804FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B990FC-CC45-4906-BC03-1C325D3EEA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico3" sheetId="11" r:id="rId1"/>
@@ -28,17 +28,28 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'BLANK Product Backlog'!$B$1:$I$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'EXAMPLE Product Backlog'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'EXAMPLE Product Backlog'!$B$1:$H$16</definedName>
     <definedName name="Interval">'[1]12-Month Sales Forecast'!#REF!</definedName>
     <definedName name="ScheduleStart">'[1]12-Month Sales Forecast'!#REF!</definedName>
     <definedName name="Type" localSheetId="6">'[2]Maintenance Work Order'!#REF!</definedName>
     <definedName name="Type" localSheetId="5">'[2]Maintenance Work Order'!#REF!</definedName>
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,15 +59,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
-    <t xml:space="preserve">PRODUCT BACKLOG REPORT </t>
+    <t>PRODUCT BACKLOG ART VISION TECH</t>
   </si>
   <si>
     <t>Requisito</t>
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
   <si>
     <t>Classificação</t>
@@ -68,25 +82,28 @@
     <t>TAM (#)</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>Prioridade</t>
   </si>
   <si>
     <t>Home</t>
   </si>
   <si>
+    <t>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
     <t>Essencial</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t>M</t>
   </si>
   <si>
     <t>Sobre</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t xml:space="preserve">Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </t>
   </si>
   <si>
     <t>Importante</t>
@@ -95,7 +112,7 @@
     <t>Cadastro</t>
   </si>
   <si>
-    <t>Overdue</t>
+    <t>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</t>
   </si>
   <si>
     <t>Desejável</t>
@@ -104,52 +121,121 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Medium</t>
+    <t>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</t>
   </si>
   <si>
-    <t>On Hold</t>
+    <t>P</t>
   </si>
   <si>
     <t>Dashboard Sala</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Página de informações gerais a respeito dos sensores da sala selecionada.</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>Lista de Sensores</t>
   </si>
   <si>
-    <t>Low</t>
+    <t>Lista de todos os sensores registrados no sistema do museu.</t>
+  </si>
+  <si>
+    <t>2A</t>
   </si>
   <si>
     <t>Relatórios</t>
   </si>
   <si>
+    <t>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</t>
+  </si>
+  <si>
     <t>Linha do tempo</t>
+  </si>
+  <si>
+    <t>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</t>
+  </si>
+  <si>
+    <t>2C</t>
   </si>
   <si>
     <t>Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Manutenção de Umidade e Temperatura Controladas </t>
-  </si>
-  <si>
-    <t>Precisão de Controle</t>
+    <t>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</t>
   </si>
   <si>
     <t>Monitoramento em Tempo Real</t>
   </si>
   <si>
+    <t>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
     <t>Alertas de Desvio</t>
+  </si>
+  <si>
+    <t>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</t>
   </si>
   <si>
     <t>Calculadora Financeira</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localização dos Sensores  </t>
+  </si>
+  <si>
+    <t>O sistema deve mostrar onde os sensores estão localizados.</t>
+  </si>
+  <si>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Local onde é possível realizar ajustes das informações referentes ao usuários e ao sensores.</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Tam (#)</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica | Banco de Dados</t>
+  </si>
+  <si>
+    <t>Definir as tabelas e os relacionamentos do banco de dados do sistema.</t>
+  </si>
+  <si>
+    <t>Planilha de Riscos de Projeto</t>
+  </si>
+  <si>
+    <t>Criar um documento onde é identificado informações sobre os riscos do projeto. Definir as ações de resposta para os respectivos riscos.</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução</t>
+  </si>
+  <si>
+    <t>Entregável de Tecnologia da Informação (ainda não apresentado)</t>
+  </si>
+  <si>
+    <t>Reestruturação da Documentação</t>
+  </si>
+  <si>
+    <t>Revisar as informações da documentação, retirando partes que forem consideradas desnecessárias ou fora do objetivo do projeto.</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT BACKLOG TEMPLATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT BACKLOG REPORT </t>
   </si>
   <si>
     <t>ID</t>
@@ -170,106 +256,40 @@
     <t>SPRINT</t>
   </si>
   <si>
-    <t xml:space="preserve">Any articles, templates, or information provided by Smartsheet on the website are for reference only. While we strive to keep the information up to date and correct, we make no representations or warranties of any kind, express or implied, about the completeness, accuracy, reliability, suitability, or availability with respect to the website or the information, articles, templates, or related graphics contained on the website. Any reliance you place on such information is therefore strictly at your own risk. </t>
+    <t>STATUS</t>
   </si>
   <si>
-    <t>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</t>
+    <t>Saida de um membro</t>
   </si>
   <si>
-    <t>Página de informações gerais a respeito dos sensores da sala selecionada.</t>
+    <t>High</t>
   </si>
   <si>
-    <t>Lista de todos os sensores registrados no sistema do museu.</t>
+    <t>Complete</t>
   </si>
   <si>
-    <t>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</t>
+    <t>Not Started</t>
   </si>
   <si>
-    <t>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</t>
+    <t>Medium</t>
   </si>
   <si>
-    <t>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</t>
+    <t>In Progress</t>
   </si>
   <si>
-    <t>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </t>
+    <t>Low</t>
   </si>
   <si>
-    <t>O sistema deve ser preciso na medição da temperatura e umidade.</t>
+    <t>Overdue</t>
   </si>
   <si>
-    <t>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</t>
+    <t>On Hold</t>
   </si>
   <si>
-    <t>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</t>
+    <t>TOTAL</t>
   </si>
   <si>
-    <t>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localização dos Sensores  </t>
-  </si>
-  <si>
-    <t>O sistema deve mostrar onde os sensores estão localizados.</t>
-  </si>
-  <si>
-    <t>Ajustes</t>
-  </si>
-  <si>
-    <t>Atividade</t>
-  </si>
-  <si>
-    <t>Modelagem Lógica | Banco de Dados</t>
-  </si>
-  <si>
-    <t>Definir as tabelas e os relacionamentos do banco de dados do sistema.</t>
-  </si>
-  <si>
-    <t>Planilha de Riscos de Projeto</t>
-  </si>
-  <si>
-    <t>Criar um documento onde é identificado informações sobre os riscos do projeto. Definir as ações de resposta para os respectivos riscos.</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução</t>
-  </si>
-  <si>
-    <t>Entregável de Tecnologia da Informação (ainda não apresentado)</t>
-  </si>
-  <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>PRODUCT BACKLOG ART VISION TECH</t>
-  </si>
-  <si>
-    <t>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </t>
-  </si>
-  <si>
-    <t>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</t>
-  </si>
-  <si>
-    <t>Local onde é possível realizar ajustes das informações referentes ao usuários e ao sensores.</t>
-  </si>
-  <si>
-    <t>Tam (#)</t>
+    <t xml:space="preserve">Any articles, templates, or information provided by Smartsheet on the website are for reference only. While we strive to keep the information up to date and correct, we make no representations or warranties of any kind, express or implied, about the completeness, accuracy, reliability, suitability, or availability with respect to the website or the information, articles, templates, or related graphics contained on the website. Any reliance you place on such information is therefore strictly at your own risk. </t>
   </si>
 </sst>
 </file>
@@ -279,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,6 +421,11 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
     </font>
   </fonts>
   <fills count="11">
@@ -630,6 +655,15 @@
     <xf numFmtId="1" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -642,16 +676,7 @@
     <xf numFmtId="9" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,23 +688,23 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -921,41 +946,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF81D6F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00BD32"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2D2D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1032,7 +1022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1057,284 +1047,222 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ser preciso na medição da temperatura e umidade.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Descrição</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sprint</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Classificação</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Tamanho</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>TAM (#)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="96"/>
+                <c:pt idx="2">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Importante</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>TAM (#)</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1429,7 +1357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1675080016"/>
@@ -1488,7 +1416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386102656"/>
@@ -1536,7 +1464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1582,7 +1510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1607,284 +1535,222 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ser preciso na medição da temperatura e umidade.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Descrição</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sprint</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Classificação</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Tamanho</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>TAM (#)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="96"/>
+                <c:pt idx="2">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Importante</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>TAM (#)</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1979,7 +1845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1675069600"/>
@@ -2038,7 +1904,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="324884016"/>
@@ -2086,7 +1952,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2132,7 +1998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2157,284 +2023,222 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ser preciso na medição da temperatura e umidade.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Descrição</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sprint</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Classificação</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Tamanho</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>TAM (#)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="96"/>
+                <c:pt idx="2">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Importante</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>TAM (#)</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2529,7 +2333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390507872"/>
@@ -2588,7 +2392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386096416"/>
@@ -2636,7 +2440,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2682,7 +2486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2707,284 +2511,222 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ser preciso na medição da temperatura e umidade.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Descrição</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sprint</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Classificação</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Tamanho</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>TAM (#)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="96"/>
+                <c:pt idx="2">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Importante</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>TAM (#)</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3079,7 +2821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="238160192"/>
@@ -3138,7 +2880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="241703376"/>
@@ -3186,7 +2928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3232,7 +2974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3257,284 +2999,222 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deve ser preciso na medição da temperatura e umidade.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>O sistema deverá permitir a manutenção da temperatura e umidade do ambiente </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2D</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2B</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Essencial</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Descrição</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sprint</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Classificação</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Tamanho</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>TAM (#)</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'EXAMPLE Product Backlog'!$C$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="96"/>
+                <c:pt idx="2">
+                  <c:v>Descrição</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Página de entrada do site, panorama geral da solução com dados, objetivo da empresa e explicação da metodologia utilizada para a solução do problema.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Explicar sobre a história da empresa, e por quê de ser necessário à nossa solução, como chegamos na conclusão que é necessário o nosso software.  </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Página para o usuário se cadastrar no sistema, com nome, e-mail, CPF, empresa, senha.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Página a qual o usuário será redirecionado ao realizar o acesso ao portal. Local onde exibirá os locais onde estão registrados os sensores.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Página de informações gerais a respeito dos sensores da sala selecionada.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lista de todos os sensores registrados no sistema do museu.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Avaliação diária realizada pelo sistema, referente ao funcionamento das etapas de monitoramento do sistema</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marcar os principais acontecimentos em uma sequência linear de acordo com a data.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Onde será realizado a verificação do usuário através dos campos de: CPF e senha.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>O sistema deve monitorar em tempo real a temperatura e umidade do ambiente.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O sistema deve emitir alertas caso a temperatura aumente ou diminua, alertas de erro do sensor, alertas da temperatura ou umidade ultrapassar o limite permitido.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O sistema deve ter uma calculadora financeira para prever os benefícios em utilizar nosso sistema.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>O sistema deve mostrar onde os sensores estão localizados.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Sprint</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2D</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2C</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Classificação</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Importante</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Essencial</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Tamanho</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>PP</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>TAM (#)</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3629,7 +3309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1682486096"/>
@@ -3688,7 +3368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="379904272"/>
@@ -3736,7 +3416,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6678,7 +6358,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="12-Month Sales Forecast"/>
@@ -6693,7 +6373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maintenance Work Order"/>
@@ -6976,562 +6656,568 @@
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="30.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+    <row r="2" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="49.9" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="15" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="49.9" customHeight="1">
       <c r="B4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="13" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="25">
         <v>8</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0</v>
       </c>
       <c r="I5" s="13">
         <v>2</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="25">
         <v>13</v>
       </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="22" t="s">
+    <row r="7" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="25">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="25">
+        <v>21</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="25">
         <v>8</v>
       </c>
-      <c r="G6" s="25">
+      <c r="I9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="25">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="25">
+        <v>8</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="25">
+        <v>5</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="25">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.9" customHeight="1">
+      <c r="B14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="25">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A15" s="2">
+        <f ca="1">A15:H15</f>
         <v>0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="B15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="25">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A16" s="2">
+        <f ca="1">A16:H16</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="K6" s="20" t="s">
-        <v>16</v>
+      <c r="B16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="25">
+        <v>3</v>
+      </c>
+      <c r="I16" s="13">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="49.9" customHeight="1">
       <c r="A17" s="2">
         <f ca="1">A17:H17</f>
         <v>0</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f ca="1">A18:H18</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>53</v>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="E18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="G18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="49.9" customHeight="1">
       <c r="A19" s="2">
         <f ca="1">A19:H19</f>
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="13" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="25">
+        <v>11</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="25">
+        <v>21</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="49.9" customHeight="1">
+      <c r="A20" s="2">
+        <f ca="1">A20:H20</f>
         <v>0</v>
       </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
+      <c r="B20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="25">
+        <v>13</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="49.9" customHeight="1">
       <c r="A21" s="2">
         <f ca="1">A21:H21</f>
         <v>0</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="25">
         <v>8</v>
       </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="49.5" customHeight="1">
       <c r="A22" s="2">
         <f ca="1">A22:H22</f>
         <v>0</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="13" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="27">
+        <v>21</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f ca="1">A23:H23</f>
-        <v>0</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
-    </row>
+    <row r="23" spans="1:9" ht="17.25"/>
+    <row r="24" spans="1:9" ht="17.25"/>
+    <row r="25" spans="1:9" ht="17.25"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="22">
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -7543,15 +7229,25 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F16 F18">
-    <cfRule type="containsText" dxfId="41" priority="54" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F16 F4:F14">
+    <cfRule type="containsText" dxfId="36" priority="54" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="56" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="56" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7566,63 +7262,63 @@
       <formula>NOT(ISERROR(SEARCH("High",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="40" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="40" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F22">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F19 F21:F23" xr:uid="{79D19FD7-5317-47EE-A49C-A2F20DD2D3B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F22 F4:F17" xr:uid="{79D19FD7-5317-47EE-A49C-A2F20DD2D3B6}">
       <formula1>$K$4:$K$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7643,321 +7339,323 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="36" style="1" customWidth="1"/>
-    <col min="7" max="9" width="15.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.8984375" style="1"/>
+    <col min="7" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+    <row r="2" spans="1:13" ht="29.25" customHeight="1">
+      <c r="B2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="32.1" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="38"/>
       <c r="E3" s="15" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="B4" s="23"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="30"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="22" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H4" s="25">
         <v>0</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1">
       <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H5" s="25">
         <v>0</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1">
       <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H6" s="25">
         <v>0</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1">
       <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H7" s="25">
         <v>0</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="24.95" customHeight="1">
       <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="22" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H8" s="25">
         <v>0</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="24.95" customHeight="1">
       <c r="B9" s="23"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
       <c r="G9" s="22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H9" s="25">
         <v>0</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="24.95" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H10" s="25">
         <v>0</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="24.95" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H11" s="25">
         <v>0</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="24.95" customHeight="1">
       <c r="B12" s="23"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="22" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H12" s="25">
         <v>0</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="24.95" customHeight="1">
       <c r="B13" s="23"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H13" s="25">
         <v>0</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="24.95" customHeight="1">
       <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="22" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H14" s="25">
         <v>0</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="24.95" customHeight="1">
       <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H15" s="25">
         <v>0</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="24.95" customHeight="1">
       <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="22" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H16" s="25">
         <v>0</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24.95" customHeight="1">
       <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H17" s="25">
         <v>0</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1">
       <c r="B18" s="35" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -7970,7 +7668,7 @@
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7978,6 +7676,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C16:D16"/>
@@ -7989,13 +7694,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G17">
     <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Low">
@@ -8077,17 +7775,17 @@
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="88.3984375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="3"/>
+    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="88.375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:2" ht="105" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8097,15 +7795,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678EE90E01C1554D81095FA0DFA567B7" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012a7ac64c29fded4fe9435d797e27e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e7a52f9-5c66-44a9-86f3-38766607b952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05da1342c08114b6330d010208ca11d1" ns3:_="">
     <xsd:import namespace="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
@@ -8255,6 +7944,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8264,37 +7962,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8DBBE0-27BD-4D68-870A-6C9CFB0BB6CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E784C7A-215E-4BC6-9503-8564823AE577}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E784C7A-215E-4BC6-9503-8564823AE577}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8DBBE0-27BD-4D68-870A-6C9CFB0BB6CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD3B143F-61D5-4FE7-AF30-9937B84882D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e7a52f9-5c66-44a9-86f3-38766607b952"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD3B143F-61D5-4FE7-AF30-9937B84882D4}"/>
 </file>